--- a/xlsx/country_comparison/share_solidarity_supported_by_info_wo_RU.xlsx
+++ b/xlsx/country_comparison/share_solidarity_supported_by_info_wo_RU.xlsx
@@ -419,13 +419,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0154749496229128</v>
+        <v>0.0155264226709093</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00140938341735011</v>
+        <v>0.00144839296473001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0295405158284756</v>
+        <v>0.0296044523770886</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -436,13 +436,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0165547590621097</v>
+        <v>0.0165547590621099</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0031862118894529</v>
+        <v>-0.00318621188945287</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0362957300136724</v>
+        <v>0.0362957300136726</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -453,10 +453,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00494056137424159</v>
+        <v>-0.00494056137424157</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0512163291139685</v>
+        <v>-0.0512163291139684</v>
       </c>
       <c r="D4" t="n">
         <v>0.0413352063654853</v>
@@ -473,10 +473,10 @@
         <v>0.0481368196005593</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00722864651991844</v>
+        <v>0.00722864651991834</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0890449926812001</v>
+        <v>0.0890449926812002</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -490,10 +490,10 @@
         <v>0.024627688715132</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0227710401552339</v>
+        <v>-0.022771040155234</v>
       </c>
       <c r="D6" t="n">
-        <v>0.072026417585498</v>
+        <v>0.0720264175854981</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -510,7 +510,7 @@
         <v>-0.072844733673454</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0470027632915176</v>
+        <v>0.0470027632915175</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -521,13 +521,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0375599044291893</v>
+        <v>0.0375599044291895</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0220015874743624</v>
+        <v>-0.0220015874743622</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0971213963327411</v>
+        <v>0.0971213963327412</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -538,10 +538,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00518592478852581</v>
+        <v>0.00518592478852574</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0428998635668622</v>
+        <v>-0.0428998635668623</v>
       </c>
       <c r="D9" t="n">
         <v>0.0532717131439138</v>
@@ -558,10 +558,10 @@
         <v>-0.0135269516922421</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0757042568403407</v>
+        <v>-0.0757042568403408</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0486503534558565</v>
+        <v>0.0486503534558566</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -572,13 +572,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0095689390903381</v>
+        <v>0.00955264618361334</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0173210792321304</v>
+        <v>-0.0173418224556559</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0364589574128066</v>
+        <v>0.0364471148228826</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -589,10 +589,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.00920322016048772</v>
+        <v>-0.00920322016048767</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0645346698358918</v>
+        <v>-0.0645346698358917</v>
       </c>
       <c r="D12" t="n">
         <v>0.0461282295149163</v>
@@ -606,13 +606,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0176858990084736</v>
+        <v>0.01779300719663</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.00844567446202415</v>
+        <v>-0.00836073172973517</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0438174724789713</v>
+        <v>0.0439467461229952</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/share_solidarity_supported_by_info_wo_RU.xlsx
+++ b/xlsx/country_comparison/share_solidarity_supported_by_info_wo_RU.xlsx
@@ -422,10 +422,10 @@
         <v>0.0155264226709093</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00144839296473001</v>
+        <v>0.00144839296472999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0296044523770886</v>
+        <v>0.0296044523770887</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -436,13 +436,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0165547590621099</v>
+        <v>0.0165547590621098</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.00318621188945287</v>
+        <v>-0.0031862118894529</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0362957300136726</v>
+        <v>0.0362957300136725</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -453,10 +453,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00494056137424157</v>
+        <v>-0.00494056137424163</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0512163291139684</v>
+        <v>-0.0512163291139685</v>
       </c>
       <c r="D4" t="n">
         <v>0.0413352063654853</v>
@@ -473,7 +473,7 @@
         <v>0.0481368196005593</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00722864651991834</v>
+        <v>0.00722864651991839</v>
       </c>
       <c r="D5" t="n">
         <v>0.0890449926812002</v>
@@ -487,13 +487,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.024627688715132</v>
+        <v>0.0246276887151322</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.022771040155234</v>
+        <v>-0.0227710401552338</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0720264175854981</v>
+        <v>0.0720264175854982</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -507,10 +507,10 @@
         <v>-0.0129209851909682</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.072844733673454</v>
+        <v>-0.0728447336734538</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0470027632915175</v>
+        <v>0.0470027632915174</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -521,13 +521,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0375599044291895</v>
+        <v>0.0375599044291894</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0220015874743622</v>
+        <v>-0.0220015874743623</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0971213963327412</v>
+        <v>0.0971213963327411</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -538,13 +538,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00518592478852574</v>
+        <v>0.00518592478852564</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0428998635668623</v>
+        <v>-0.0428998635668624</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0532717131439138</v>
+        <v>0.0532717131439137</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -558,7 +558,7 @@
         <v>-0.0135269516922421</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0757042568403408</v>
+        <v>-0.0757042568403409</v>
       </c>
       <c r="D10" t="n">
         <v>0.0486503534558566</v>
@@ -572,13 +572,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00955264618361334</v>
+        <v>0.00955264618361333</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0173418224556559</v>
+        <v>-0.0173418224556561</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0364471148228826</v>
+        <v>0.0364471148228827</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -589,10 +589,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.00920322016048767</v>
+        <v>-0.0092032201604878</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0645346698358917</v>
+        <v>-0.0645346698358919</v>
       </c>
       <c r="D12" t="n">
         <v>0.0461282295149163</v>
@@ -606,13 +606,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01779300719663</v>
+        <v>0.0177930071966301</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.00836073172973517</v>
+        <v>-0.00836073172973514</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0439467461229952</v>
+        <v>0.0439467461229954</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
